--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6772810054486448</v>
+        <v>0.6773685352888915</v>
       </c>
       <c r="E2">
-        <v>0.6772810054486448</v>
+        <v>0.6773685352888915</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.898950705719967E-05</v>
+        <v>2.900456263355253E-05</v>
       </c>
       <c r="E3">
-        <v>2.898950705719967E-05</v>
+        <v>2.900456263355253E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.002591093737284622</v>
+        <v>0.002590123258075552</v>
       </c>
       <c r="E4">
-        <v>0.002591093737284622</v>
+        <v>0.002590123258075552</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.000791329614109119</v>
+        <v>0.0007905143580800866</v>
       </c>
       <c r="E5">
-        <v>0.000791329614109119</v>
+        <v>0.0007905143580800866</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8074931968427262</v>
+        <v>0.8074772992877954</v>
       </c>
       <c r="E6">
-        <v>0.8074931968427262</v>
+        <v>0.8074772992877954</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.985991343591494</v>
+        <v>0.7288369672418282</v>
       </c>
       <c r="E7">
-        <v>0.01400865640850602</v>
+        <v>0.2711630327581718</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9869222792470285</v>
+        <v>1.202827873786564E-06</v>
       </c>
       <c r="E8">
-        <v>0.01307772075297153</v>
+        <v>0.9999987971721263</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.986265900999891</v>
+        <v>3.602875892714194E-12</v>
       </c>
       <c r="E9">
-        <v>0.01373409900010902</v>
+        <v>0.9999999999963971</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.986970735328718</v>
+        <v>2.771316706537062E-06</v>
       </c>
       <c r="E10">
-        <v>0.01302926467128196</v>
+        <v>0.9999972286832934</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9874888865875914</v>
+        <v>0.1771414761422895</v>
       </c>
       <c r="E11">
-        <v>0.01251111341240863</v>
+        <v>0.8228585238577105</v>
       </c>
       <c r="F11">
-        <v>0.2848818302154541</v>
+        <v>5.760561943054199</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8537424862182239</v>
+        <v>0.8537451610423439</v>
       </c>
       <c r="E12">
-        <v>0.8537424862182239</v>
+        <v>0.8537451610423439</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>8.384437752257028E-06</v>
+        <v>8.361315539162392E-06</v>
       </c>
       <c r="E13">
-        <v>8.384437752257028E-06</v>
+        <v>8.361315539162392E-06</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0003709426264133579</v>
+        <v>0.0003712103656480031</v>
       </c>
       <c r="E14">
-        <v>0.0003709426264133579</v>
+        <v>0.0003712103656480031</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.337952591885606E-06</v>
+        <v>8.346299101834615E-06</v>
       </c>
       <c r="E15">
-        <v>8.337952591885606E-06</v>
+        <v>8.346299101834615E-06</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9108444594871622</v>
+        <v>0.910891109550215</v>
       </c>
       <c r="E16">
-        <v>0.9108444594871622</v>
+        <v>0.910891109550215</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9968597667240552</v>
+        <v>0.8591180471349766</v>
       </c>
       <c r="E17">
-        <v>0.003140233275944815</v>
+        <v>0.1408819528650234</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9971258104169308</v>
+        <v>2.182498765102871E-06</v>
       </c>
       <c r="E18">
-        <v>0.002874189583069175</v>
+        <v>0.9999978175012348</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9968411021934571</v>
+        <v>5.828603003825485E-19</v>
       </c>
       <c r="E19">
-        <v>0.003158897806542882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9970387778004877</v>
+        <v>1.989691771583631E-07</v>
       </c>
       <c r="E20">
-        <v>0.002961222199512337</v>
+        <v>0.9999998010308229</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9972082788231974</v>
+        <v>0.04089707394420425</v>
       </c>
       <c r="E21">
-        <v>0.002791721176802597</v>
+        <v>0.9591029260557957</v>
       </c>
       <c r="F21">
-        <v>0.4355094432830811</v>
+        <v>7.814073085784912</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
